--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.498887</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N2">
-        <v>1.496661</v>
+        <v>5.655818</v>
       </c>
       <c r="O2">
-        <v>0.02648427274171232</v>
+        <v>0.09492860504740355</v>
       </c>
       <c r="P2">
-        <v>0.02648427274171232</v>
+        <v>0.09492860504740358</v>
       </c>
       <c r="Q2">
-        <v>0.2062959274396667</v>
+        <v>1.345570632986222</v>
       </c>
       <c r="R2">
-        <v>1.856663346957</v>
+        <v>12.110135696876</v>
       </c>
       <c r="S2">
-        <v>0.005617595415159408</v>
+        <v>0.03297183393617105</v>
       </c>
       <c r="T2">
-        <v>0.005617595415159408</v>
+        <v>0.03297183393617106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.885272666666667</v>
+        <v>5.338787666666666</v>
       </c>
       <c r="N3">
-        <v>5.655818</v>
+        <v>16.016363</v>
       </c>
       <c r="O3">
-        <v>0.1000829356076532</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="P3">
-        <v>0.1000829356076532</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="Q3">
-        <v>0.7795834993628891</v>
+        <v>3.810438684562889</v>
       </c>
       <c r="R3">
-        <v>7.016251494266001</v>
+        <v>34.293948161066</v>
       </c>
       <c r="S3">
-        <v>0.02122865315911623</v>
+        <v>0.09337090781517975</v>
       </c>
       <c r="T3">
-        <v>0.02122865315911623</v>
+        <v>0.09337090781517976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.766192666666667</v>
+        <v>0.4913906666666667</v>
       </c>
       <c r="N4">
-        <v>14.298578</v>
+        <v>1.474172</v>
       </c>
       <c r="O4">
-        <v>0.2530215189482771</v>
+        <v>0.02474285621636711</v>
       </c>
       <c r="P4">
-        <v>0.2530215189482771</v>
+        <v>0.02474285621636712</v>
       </c>
       <c r="Q4">
-        <v>1.970879450709556</v>
+        <v>0.3507189501448889</v>
       </c>
       <c r="R4">
-        <v>17.737915056386</v>
+        <v>3.156470551304</v>
       </c>
       <c r="S4">
-        <v>0.05366855033711654</v>
+        <v>0.008594009633505383</v>
       </c>
       <c r="T4">
-        <v>0.05366855033711654</v>
+        <v>0.008594009633505385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H5">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08853533333333334</v>
+        <v>9.44159</v>
       </c>
       <c r="N5">
-        <v>0.265606</v>
+        <v>28.32477</v>
       </c>
       <c r="O5">
-        <v>0.004700050142173305</v>
+        <v>0.4754097293068031</v>
       </c>
       <c r="P5">
-        <v>0.004700050142173305</v>
+        <v>0.4754097293068032</v>
       </c>
       <c r="Q5">
-        <v>0.03661045226911112</v>
+        <v>6.738720853126667</v>
       </c>
       <c r="R5">
-        <v>0.3294940704220001</v>
+        <v>60.64848767814</v>
       </c>
       <c r="S5">
-        <v>0.000996930532591435</v>
+        <v>0.1651254712793516</v>
       </c>
       <c r="T5">
-        <v>0.000996930532591435</v>
+        <v>0.1651254712793516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H6">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253313666666667</v>
+        <v>2.702859666666667</v>
       </c>
       <c r="N6">
-        <v>18.759941</v>
+        <v>8.108579000000001</v>
       </c>
       <c r="O6">
-        <v>0.3319678898978669</v>
+        <v>0.1360963336137532</v>
       </c>
       <c r="P6">
-        <v>0.3319678898978669</v>
+        <v>0.1360963336137533</v>
       </c>
       <c r="Q6">
-        <v>2.585822325368556</v>
+        <v>1.929104822264222</v>
       </c>
       <c r="R6">
-        <v>23.272400928317</v>
+        <v>17.361943400378</v>
       </c>
       <c r="S6">
-        <v>0.07041391373882329</v>
+        <v>0.04727074319688575</v>
       </c>
       <c r="T6">
-        <v>0.07041391373882329</v>
+        <v>0.04727074319688575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4135123333333334</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H7">
-        <v>1.240537</v>
+        <v>1.811317</v>
       </c>
       <c r="I7">
-        <v>0.212110616362585</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J7">
-        <v>0.212110616362585</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.344902666666667</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N7">
-        <v>16.034708</v>
+        <v>5.655818</v>
       </c>
       <c r="O7">
-        <v>0.2837433326623173</v>
+        <v>0.09492860504740355</v>
       </c>
       <c r="P7">
-        <v>0.2837433326623173</v>
+        <v>0.09492860504740358</v>
       </c>
       <c r="Q7">
-        <v>2.21018317313289</v>
+        <v>1.138275476922889</v>
       </c>
       <c r="R7">
-        <v>19.89164855819601</v>
+        <v>10.244479292306</v>
       </c>
       <c r="S7">
-        <v>0.06018497317977811</v>
+        <v>0.02789227787724889</v>
       </c>
       <c r="T7">
-        <v>0.06018497317977811</v>
+        <v>0.0278922778772489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.498887</v>
+        <v>5.338787666666666</v>
       </c>
       <c r="N8">
-        <v>1.496661</v>
+        <v>16.016363</v>
       </c>
       <c r="O8">
-        <v>0.02648427274171232</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="P8">
-        <v>0.02648427274171232</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="Q8">
-        <v>0.3012141680596667</v>
+        <v>3.223412286674555</v>
       </c>
       <c r="R8">
-        <v>2.710927512537</v>
+        <v>29.010710580071</v>
       </c>
       <c r="S8">
-        <v>0.00820229148715459</v>
+        <v>0.07898642554956464</v>
       </c>
       <c r="T8">
-        <v>0.00820229148715459</v>
+        <v>0.07898642554956466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.885272666666667</v>
+        <v>0.4913906666666667</v>
       </c>
       <c r="N9">
-        <v>5.655818</v>
+        <v>1.474172</v>
       </c>
       <c r="O9">
-        <v>0.1000829356076532</v>
+        <v>0.02474285621636711</v>
       </c>
       <c r="P9">
-        <v>0.1000829356076532</v>
+        <v>0.02474285621636712</v>
       </c>
       <c r="Q9">
-        <v>1.138275476922889</v>
+        <v>0.2966880893915556</v>
       </c>
       <c r="R9">
-        <v>10.244479292306</v>
+        <v>2.670192804524</v>
       </c>
       <c r="S9">
-        <v>0.03099610922867349</v>
+        <v>0.007270038580247765</v>
       </c>
       <c r="T9">
-        <v>0.03099610922867349</v>
+        <v>0.007270038580247766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.766192666666667</v>
+        <v>9.44159</v>
       </c>
       <c r="N10">
-        <v>14.298578</v>
+        <v>28.32477</v>
       </c>
       <c r="O10">
-        <v>0.2530215189482771</v>
+        <v>0.4754097293068031</v>
       </c>
       <c r="P10">
-        <v>0.2530215189482771</v>
+        <v>0.4754097293068032</v>
       </c>
       <c r="Q10">
-        <v>2.877695267469556</v>
+        <v>5.700570824676666</v>
       </c>
       <c r="R10">
-        <v>25.899257407226</v>
+        <v>51.30513742209</v>
       </c>
       <c r="S10">
-        <v>0.07836183651997071</v>
+        <v>0.1396866652443843</v>
       </c>
       <c r="T10">
-        <v>0.07836183651997071</v>
+        <v>0.1396866652443843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,72 +1107,72 @@
         <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08853533333333334</v>
+        <v>2.702859666666667</v>
       </c>
       <c r="N11">
-        <v>0.265606</v>
+        <v>8.108579000000001</v>
       </c>
       <c r="O11">
-        <v>0.004700050142173305</v>
+        <v>0.1360963336137532</v>
       </c>
       <c r="P11">
-        <v>0.004700050142173305</v>
+        <v>0.1360963336137533</v>
       </c>
       <c r="Q11">
-        <v>0.05345518478911112</v>
+        <v>1.631911887615889</v>
       </c>
       <c r="R11">
-        <v>0.4810966631020001</v>
+        <v>14.687206988543</v>
       </c>
       <c r="S11">
-        <v>0.001455625444063273</v>
+        <v>0.03998833389929184</v>
       </c>
       <c r="T11">
-        <v>0.001455625444063273</v>
+        <v>0.03998833389929184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6037723333333334</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H12">
-        <v>1.811317</v>
+        <v>0.279021</v>
       </c>
       <c r="I12">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J12">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253313666666667</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N12">
-        <v>18.759941</v>
+        <v>5.655818</v>
       </c>
       <c r="O12">
-        <v>0.3319678898978669</v>
+        <v>0.09492860504740355</v>
       </c>
       <c r="P12">
-        <v>0.3319678898978669</v>
+        <v>0.09492860504740358</v>
       </c>
       <c r="Q12">
-        <v>3.775577783588556</v>
+        <v>0.1753435549086667</v>
       </c>
       <c r="R12">
-        <v>33.980200052297</v>
+        <v>1.578091994178</v>
       </c>
       <c r="S12">
-        <v>0.1028118621142813</v>
+        <v>0.004296614709400875</v>
       </c>
       <c r="T12">
-        <v>0.1028118621142813</v>
+        <v>0.004296614709400876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6037723333333334</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H13">
-        <v>1.811317</v>
+        <v>0.279021</v>
       </c>
       <c r="I13">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J13">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.344902666666667</v>
+        <v>5.338787666666666</v>
       </c>
       <c r="N13">
-        <v>16.034708</v>
+        <v>16.016363</v>
       </c>
       <c r="O13">
-        <v>0.2837433326623173</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="P13">
-        <v>0.2837433326623173</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="Q13">
-        <v>3.227104354492889</v>
+        <v>0.4965446245136666</v>
       </c>
       <c r="R13">
-        <v>29.043939190436</v>
+        <v>4.468901620623</v>
       </c>
       <c r="S13">
-        <v>0.08787651240154556</v>
+        <v>0.01216731883114059</v>
       </c>
       <c r="T13">
-        <v>0.08787651240154556</v>
+        <v>0.01216731883114059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H14">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.498887</v>
+        <v>0.4913906666666667</v>
       </c>
       <c r="N14">
-        <v>1.496661</v>
+        <v>1.474172</v>
       </c>
       <c r="O14">
-        <v>0.02648427274171232</v>
+        <v>0.02474285621636711</v>
       </c>
       <c r="P14">
-        <v>0.02648427274171232</v>
+        <v>0.02474285621636712</v>
       </c>
       <c r="Q14">
-        <v>0.1502601081213333</v>
+        <v>0.04570277173466667</v>
       </c>
       <c r="R14">
-        <v>1.352340973092</v>
+        <v>0.4113249456120001</v>
       </c>
       <c r="S14">
-        <v>0.004091697325002331</v>
+        <v>0.001119899738532412</v>
       </c>
       <c r="T14">
-        <v>0.004091697325002331</v>
+        <v>0.001119899738532412</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H15">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.885272666666667</v>
+        <v>9.44159</v>
       </c>
       <c r="N15">
-        <v>5.655818</v>
+        <v>28.32477</v>
       </c>
       <c r="O15">
-        <v>0.1000829356076532</v>
+        <v>0.4754097293068031</v>
       </c>
       <c r="P15">
-        <v>0.1000829356076532</v>
+        <v>0.4754097293068032</v>
       </c>
       <c r="Q15">
-        <v>0.5678265313217777</v>
+        <v>0.8781339611300001</v>
       </c>
       <c r="R15">
-        <v>5.110438781896001</v>
+        <v>7.903205650169999</v>
       </c>
       <c r="S15">
-        <v>0.0154623494440625</v>
+        <v>0.02151777575275524</v>
       </c>
       <c r="T15">
-        <v>0.0154623494440625</v>
+        <v>0.02151777575275524</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H16">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.766192666666667</v>
+        <v>2.702859666666667</v>
       </c>
       <c r="N16">
-        <v>14.298578</v>
+        <v>8.108579000000001</v>
       </c>
       <c r="O16">
-        <v>0.2530215189482771</v>
+        <v>0.1360963336137532</v>
       </c>
       <c r="P16">
-        <v>0.2530215189482771</v>
+        <v>0.1360963336137533</v>
       </c>
       <c r="Q16">
-        <v>1.435532746735111</v>
+        <v>0.2513848690176667</v>
       </c>
       <c r="R16">
-        <v>12.919794720616</v>
+        <v>2.262463821159</v>
       </c>
       <c r="S16">
-        <v>0.03909065135921706</v>
+        <v>0.006159929439691843</v>
       </c>
       <c r="T16">
-        <v>0.03909065135921706</v>
+        <v>0.006159929439691843</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H17">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I17">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J17">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.08853533333333334</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N17">
-        <v>0.265606</v>
+        <v>5.655818</v>
       </c>
       <c r="O17">
-        <v>0.004700050142173305</v>
+        <v>0.09492860504740355</v>
       </c>
       <c r="P17">
-        <v>0.004700050142173305</v>
+        <v>0.09492860504740358</v>
       </c>
       <c r="Q17">
-        <v>0.02666601607022222</v>
+        <v>0.4978848006611111</v>
       </c>
       <c r="R17">
-        <v>0.239994144632</v>
+        <v>4.480963205949999</v>
       </c>
       <c r="S17">
-        <v>0.0007261359517650082</v>
+        <v>0.01220015847871872</v>
       </c>
       <c r="T17">
-        <v>0.0007261359517650082</v>
+        <v>0.01220015847871873</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H18">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I18">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J18">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253313666666667</v>
+        <v>5.338787666666666</v>
       </c>
       <c r="N18">
-        <v>18.759941</v>
+        <v>16.016363</v>
       </c>
       <c r="O18">
-        <v>0.3319678898978669</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="P18">
-        <v>0.3319678898978669</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="Q18">
-        <v>1.883439712139111</v>
+        <v>1.409929332869444</v>
       </c>
       <c r="R18">
-        <v>16.950957409252</v>
+        <v>12.689363995825</v>
       </c>
       <c r="S18">
-        <v>0.05128749957866313</v>
+        <v>0.03454887813799645</v>
       </c>
       <c r="T18">
-        <v>0.05128749957866313</v>
+        <v>0.03454887813799646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H19">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I19">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J19">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>5.344902666666667</v>
+        <v>0.4913906666666667</v>
       </c>
       <c r="N19">
-        <v>16.034708</v>
+        <v>1.474172</v>
       </c>
       <c r="O19">
-        <v>0.2837433326623173</v>
+        <v>0.02474285621636711</v>
       </c>
       <c r="P19">
-        <v>0.2837433326623173</v>
+        <v>0.02474285621636712</v>
       </c>
       <c r="Q19">
-        <v>1.609834797441778</v>
+        <v>0.1297721801444444</v>
       </c>
       <c r="R19">
-        <v>14.488513176976</v>
+        <v>1.1679496213</v>
       </c>
       <c r="S19">
-        <v>0.04383702911400342</v>
+        <v>0.003179934719414546</v>
       </c>
       <c r="T19">
-        <v>0.04383702911400342</v>
+        <v>0.003179934719414547</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H20">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.498887</v>
+        <v>9.44159</v>
       </c>
       <c r="N20">
-        <v>1.496661</v>
+        <v>28.32477</v>
       </c>
       <c r="O20">
-        <v>0.02648427274171232</v>
+        <v>0.4754097293068031</v>
       </c>
       <c r="P20">
-        <v>0.02648427274171232</v>
+        <v>0.4754097293068032</v>
       </c>
       <c r="Q20">
-        <v>0.2118305798176667</v>
+        <v>2.493445239083333</v>
       </c>
       <c r="R20">
-        <v>1.906475218359</v>
+        <v>22.44100715175</v>
       </c>
       <c r="S20">
-        <v>0.005768308219861996</v>
+        <v>0.06109932866886059</v>
       </c>
       <c r="T20">
-        <v>0.005768308219861996</v>
+        <v>0.06109932866886059</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H21">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.885272666666667</v>
+        <v>2.702859666666667</v>
       </c>
       <c r="N21">
-        <v>5.655818</v>
+        <v>8.108579000000001</v>
       </c>
       <c r="O21">
-        <v>0.1000829356076532</v>
+        <v>0.1360963336137532</v>
       </c>
       <c r="P21">
-        <v>0.1000829356076532</v>
+        <v>0.1360963336137533</v>
       </c>
       <c r="Q21">
-        <v>0.8004987143268889</v>
+        <v>0.7138027141361112</v>
       </c>
       <c r="R21">
-        <v>7.204488428942001</v>
+        <v>6.424224427225</v>
       </c>
       <c r="S21">
-        <v>0.02179819041148492</v>
+        <v>0.01749100640034927</v>
       </c>
       <c r="T21">
-        <v>0.02179819041148492</v>
+        <v>0.01749100640034927</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H22">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I22">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J22">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.766192666666667</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N22">
-        <v>14.298578</v>
+        <v>5.655818</v>
       </c>
       <c r="O22">
-        <v>0.2530215189482771</v>
+        <v>0.09492860504740355</v>
       </c>
       <c r="P22">
-        <v>0.2530215189482771</v>
+        <v>0.09492860504740358</v>
       </c>
       <c r="Q22">
-        <v>2.023755592153556</v>
+        <v>0.3979163322384445</v>
       </c>
       <c r="R22">
-        <v>18.213800329382</v>
+        <v>3.581246990146</v>
       </c>
       <c r="S22">
-        <v>0.05510840798934288</v>
+        <v>0.009750533272221465</v>
       </c>
       <c r="T22">
-        <v>0.05510840798934288</v>
+        <v>0.009750533272221466</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H23">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I23">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J23">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.08853533333333334</v>
+        <v>5.338787666666666</v>
       </c>
       <c r="N23">
-        <v>0.265606</v>
+        <v>16.016363</v>
       </c>
       <c r="O23">
-        <v>0.004700050142173305</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="P23">
-        <v>0.004700050142173305</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="Q23">
-        <v>0.03759266325711112</v>
+        <v>1.126834778056778</v>
       </c>
       <c r="R23">
-        <v>0.338333969314</v>
+        <v>10.141513002511</v>
       </c>
       <c r="S23">
-        <v>0.001023676886779749</v>
+        <v>0.02761193523756895</v>
       </c>
       <c r="T23">
-        <v>0.001023676886779749</v>
+        <v>0.02761193523756895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H24">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I24">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J24">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>6.253313666666667</v>
+        <v>0.4913906666666667</v>
       </c>
       <c r="N24">
-        <v>18.759941</v>
+        <v>1.474172</v>
       </c>
       <c r="O24">
-        <v>0.3319678898978669</v>
+        <v>0.02474285621636711</v>
       </c>
       <c r="P24">
-        <v>0.3319678898978669</v>
+        <v>0.02474285621636712</v>
       </c>
       <c r="Q24">
-        <v>2.655196587186556</v>
+        <v>0.1037156986537778</v>
       </c>
       <c r="R24">
-        <v>23.896769284679</v>
+        <v>0.933441287884</v>
       </c>
       <c r="S24">
-        <v>0.07230302778947677</v>
+        <v>0.002541447255724506</v>
       </c>
       <c r="T24">
-        <v>0.07230302778947677</v>
+        <v>0.002541447255724506</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H25">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I25">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J25">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.344902666666667</v>
+        <v>9.44159</v>
       </c>
       <c r="N25">
-        <v>16.034708</v>
+        <v>28.32477</v>
       </c>
       <c r="O25">
-        <v>0.2837433326623173</v>
+        <v>0.4754097293068031</v>
       </c>
       <c r="P25">
-        <v>0.2837433326623173</v>
+        <v>0.4754097293068032</v>
       </c>
       <c r="Q25">
-        <v>2.269479523316889</v>
+        <v>1.992795487743333</v>
       </c>
       <c r="R25">
-        <v>20.425315709852</v>
+        <v>17.93515938969</v>
       </c>
       <c r="S25">
-        <v>0.06179965801172538</v>
+        <v>0.0488314178979982</v>
       </c>
       <c r="T25">
-        <v>0.06179965801172538</v>
+        <v>0.0488314178979982</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H26">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.498887</v>
+        <v>2.702859666666667</v>
       </c>
       <c r="N26">
-        <v>1.496661</v>
+        <v>8.108579000000001</v>
       </c>
       <c r="O26">
-        <v>0.02648427274171232</v>
+        <v>0.1360963336137532</v>
       </c>
       <c r="P26">
-        <v>0.02648427274171232</v>
+        <v>0.1360963336137533</v>
       </c>
       <c r="Q26">
-        <v>0.03709756991133334</v>
+        <v>0.5704808774514445</v>
       </c>
       <c r="R26">
-        <v>0.333878129202</v>
+        <v>5.134327897063001</v>
       </c>
       <c r="S26">
-        <v>0.001010195117440746</v>
+        <v>0.01397905118763303</v>
       </c>
       <c r="T26">
-        <v>0.001010195117440746</v>
+        <v>0.01397905118763303</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H27">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I27">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J27">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,27 +2117,27 @@
         <v>5.655818</v>
       </c>
       <c r="O27">
-        <v>0.1000829356076532</v>
+        <v>0.09492860504740355</v>
       </c>
       <c r="P27">
-        <v>0.1000829356076532</v>
+        <v>0.09492860504740358</v>
       </c>
       <c r="Q27">
-        <v>0.1401901323417778</v>
+        <v>0.3190170427142223</v>
       </c>
       <c r="R27">
-        <v>1.261711191076</v>
+        <v>2.871153384428</v>
       </c>
       <c r="S27">
-        <v>0.003817484205664132</v>
+        <v>0.007817186773642544</v>
       </c>
       <c r="T27">
-        <v>0.003817484205664132</v>
+        <v>0.007817186773642544</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H28">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I28">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J28">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.766192666666667</v>
+        <v>5.338787666666666</v>
       </c>
       <c r="N28">
-        <v>14.298578</v>
+        <v>16.016363</v>
       </c>
       <c r="O28">
-        <v>0.2530215189482771</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="P28">
-        <v>0.2530215189482771</v>
+        <v>0.2688224758156729</v>
       </c>
       <c r="Q28">
-        <v>0.3544172641551112</v>
+        <v>0.9034047346108889</v>
       </c>
       <c r="R28">
-        <v>3.189755377396</v>
+        <v>8.130642611498001</v>
       </c>
       <c r="S28">
-        <v>0.009651052363859063</v>
+        <v>0.02213701024422246</v>
       </c>
       <c r="T28">
-        <v>0.009651052363859063</v>
+        <v>0.02213701024422246</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H29">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I29">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J29">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.08853533333333334</v>
+        <v>0.4913906666666667</v>
       </c>
       <c r="N29">
-        <v>0.265606</v>
+        <v>1.474172</v>
       </c>
       <c r="O29">
-        <v>0.004700050142173305</v>
+        <v>0.02474285621636711</v>
       </c>
       <c r="P29">
-        <v>0.004700050142173305</v>
+        <v>0.02474285621636712</v>
       </c>
       <c r="Q29">
-        <v>0.006583546410222223</v>
+        <v>0.08315083545688891</v>
       </c>
       <c r="R29">
-        <v>0.059251917692</v>
+        <v>0.7483575191120001</v>
       </c>
       <c r="S29">
-        <v>0.0001792749890342347</v>
+        <v>0.002037526288942498</v>
       </c>
       <c r="T29">
-        <v>0.0001792749890342347</v>
+        <v>0.002037526288942498</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H30">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I30">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J30">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253313666666667</v>
+        <v>9.44159</v>
       </c>
       <c r="N30">
-        <v>18.759941</v>
+        <v>28.32477</v>
       </c>
       <c r="O30">
-        <v>0.3319678898978669</v>
+        <v>0.4754097293068031</v>
       </c>
       <c r="P30">
-        <v>0.3319678898978669</v>
+        <v>0.4754097293068032</v>
       </c>
       <c r="Q30">
-        <v>0.4650005731291112</v>
+        <v>1.597661799046667</v>
       </c>
       <c r="R30">
-        <v>4.185005158162</v>
+        <v>14.37895619142</v>
       </c>
       <c r="S30">
-        <v>0.01266232019253289</v>
+        <v>0.03914907046345323</v>
       </c>
       <c r="T30">
-        <v>0.01266232019253289</v>
+        <v>0.03914907046345323</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H31">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I31">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J31">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.344902666666667</v>
+        <v>2.702859666666667</v>
       </c>
       <c r="N31">
-        <v>16.034708</v>
+        <v>8.108579000000001</v>
       </c>
       <c r="O31">
-        <v>0.2837433326623173</v>
+        <v>0.1360963336137532</v>
       </c>
       <c r="P31">
-        <v>0.2837433326623173</v>
+        <v>0.1360963336137533</v>
       </c>
       <c r="Q31">
-        <v>0.3974505255617778</v>
+        <v>0.4573652994482223</v>
       </c>
       <c r="R31">
-        <v>3.577054730056</v>
+        <v>4.116287695034001</v>
       </c>
       <c r="S31">
-        <v>0.0108228808869798</v>
+        <v>0.01120726948990149</v>
       </c>
       <c r="T31">
-        <v>0.0108228808869798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.396211</v>
-      </c>
-      <c r="I32">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J32">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M32">
-        <v>0.498887</v>
-      </c>
-      <c r="N32">
-        <v>1.496661</v>
-      </c>
-      <c r="O32">
-        <v>0.02648427274171232</v>
-      </c>
-      <c r="P32">
-        <v>0.02648427274171232</v>
-      </c>
-      <c r="Q32">
-        <v>0.06588817238566666</v>
-      </c>
-      <c r="R32">
-        <v>0.592993551471</v>
-      </c>
-      <c r="S32">
-        <v>0.001794185177093245</v>
-      </c>
-      <c r="T32">
-        <v>0.001794185177093246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.396211</v>
-      </c>
-      <c r="I33">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J33">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.885272666666667</v>
-      </c>
-      <c r="N33">
-        <v>5.655818</v>
-      </c>
-      <c r="O33">
-        <v>0.1000829356076532</v>
-      </c>
-      <c r="P33">
-        <v>0.1000829356076532</v>
-      </c>
-      <c r="Q33">
-        <v>0.2489885895108888</v>
-      </c>
-      <c r="R33">
-        <v>2.240897305598</v>
-      </c>
-      <c r="S33">
-        <v>0.006780149158651935</v>
-      </c>
-      <c r="T33">
-        <v>0.006780149158651937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.396211</v>
-      </c>
-      <c r="I34">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J34">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>4.766192666666667</v>
-      </c>
-      <c r="N34">
-        <v>14.298578</v>
-      </c>
-      <c r="O34">
-        <v>0.2530215189482771</v>
-      </c>
-      <c r="P34">
-        <v>0.2530215189482771</v>
-      </c>
-      <c r="Q34">
-        <v>0.6294726542175555</v>
-      </c>
-      <c r="R34">
-        <v>5.665253887958</v>
-      </c>
-      <c r="S34">
-        <v>0.01714102037877087</v>
-      </c>
-      <c r="T34">
-        <v>0.01714102037877087</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.396211</v>
-      </c>
-      <c r="I35">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J35">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M35">
-        <v>0.08853533333333334</v>
-      </c>
-      <c r="N35">
-        <v>0.265606</v>
-      </c>
-      <c r="O35">
-        <v>0.004700050142173305</v>
-      </c>
-      <c r="P35">
-        <v>0.004700050142173305</v>
-      </c>
-      <c r="Q35">
-        <v>0.01169289098511111</v>
-      </c>
-      <c r="R35">
-        <v>0.105236018866</v>
-      </c>
-      <c r="S35">
-        <v>0.0003184063379396059</v>
-      </c>
-      <c r="T35">
-        <v>0.000318406337939606</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.396211</v>
-      </c>
-      <c r="I36">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J36">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>6.253313666666667</v>
-      </c>
-      <c r="N36">
-        <v>18.759941</v>
-      </c>
-      <c r="O36">
-        <v>0.3319678898978669</v>
-      </c>
-      <c r="P36">
-        <v>0.3319678898978669</v>
-      </c>
-      <c r="Q36">
-        <v>0.8258772203945555</v>
-      </c>
-      <c r="R36">
-        <v>7.432894983551</v>
-      </c>
-      <c r="S36">
-        <v>0.02248926648408947</v>
-      </c>
-      <c r="T36">
-        <v>0.02248926648408948</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.396211</v>
-      </c>
-      <c r="I37">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J37">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>5.344902666666667</v>
-      </c>
-      <c r="N37">
-        <v>16.034708</v>
-      </c>
-      <c r="O37">
-        <v>0.2837433326623173</v>
-      </c>
-      <c r="P37">
-        <v>0.2837433326623173</v>
-      </c>
-      <c r="Q37">
-        <v>0.7059030768208888</v>
-      </c>
-      <c r="R37">
-        <v>6.353127691388001</v>
-      </c>
-      <c r="S37">
-        <v>0.01922227906828499</v>
-      </c>
-      <c r="T37">
-        <v>0.01922227906828499</v>
+        <v>0.01120726948990149</v>
       </c>
     </row>
   </sheetData>
